--- a/data/PF005.xlsx
+++ b/data/PF005.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="385" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,58 +13,20 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>emailid</t>
-  </si>
-  <si>
-    <t>PassWord</t>
-  </si>
-  <si>
-    <t>reservationdate</t>
-  </si>
-  <si>
-    <t>reservationtime</t>
-  </si>
-  <si>
-    <t>partysize</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>muthuraman.sundharam@saggezza.com</t>
-  </si>
-  <si>
-    <t>mutc1234</t>
-  </si>
-  <si>
-    <t>01/27/2017</t>
-  </si>
-  <si>
-    <t>6:00 PM</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Your reservation is confirmed</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="MM/DD/YYYY"/>
-    <numFmt numFmtId="166" formatCode="HH:MM"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -87,27 +49,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,7 +67,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -143,44 +91,20 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -190,67 +114,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6836734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.47448979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.10204081632653"/>
   </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -265,18 +153,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -291,18 +179,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
